--- a/Sprint-1/SQL_DB_ERD.xlsx
+++ b/Sprint-1/SQL_DB_ERD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c67ca7a67bc9a06/Desktop/Naitik/Nmims study/SEM5/Modern Application Development/Sem End Project/Tradebook/tradebook/Sprint-1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10481961DE6AA05ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C448DBE2-DE2B-4C1B-A154-1A3030241C4B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9432" yWindow="120" windowWidth="11160" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+  <si>
+    <t>System user(admin):</t>
+  </si>
+  <si>
+    <t>column name</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>unique key</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>emailid</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>tradeid</t>
+  </si>
+  <si>
+    <t>notnull</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>trade_timestamp</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>stoploss</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>User:</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>register_timestamp</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>close_price</t>
+  </si>
+  <si>
+    <t>Trade:</t>
+  </si>
+  <si>
+    <t>open_price</t>
+  </si>
+  <si>
+    <t>profil_loss</t>
+  </si>
+  <si>
+    <t>PNL:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +472,489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>255</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sprint-1/SQL_DB_ERD.xlsx
+++ b/Sprint-1/SQL_DB_ERD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c67ca7a67bc9a06/Desktop/Naitik/Nmims study/SEM5/Modern Application Development/Sem End Project/Tradebook/tradebook/Sprint-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c67ca7a67bc9a06/Desktop/Naitik/Nmims study/SEM5/Modern Application Development/Sem End Project/Tradebook/Sprint-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC10481961DE6AA05ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C448DBE2-DE2B-4C1B-A154-1A3030241C4B}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10481961DE6AA05ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B480059-B2A6-40CA-A7F0-C1E0073C4B4D}"/>
   <bookViews>
-    <workbookView xWindow="9432" yWindow="120" windowWidth="11160" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>System user(admin):</t>
   </si>
@@ -142,12 +142,6 @@
   </si>
   <si>
     <t>open_price</t>
-  </si>
-  <si>
-    <t>profil_loss</t>
-  </si>
-  <si>
-    <t>PNL:</t>
   </si>
 </sst>
 </file>
@@ -473,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,76 +878,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
